--- a/GP3 Diagrams/StateTransitionTable.xlsx
+++ b/GP3 Diagrams/StateTransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\OneDrive\Desktop\Eclipse Workspace\Git\ICS_372-Group_Project\GP3 Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D5184A7-76FB-4113-9935-5C7172D0C1B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F580F09-689C-4587-A947-865EAEC6C219}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="17280" windowHeight="6852" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
   <si>
     <t>Fan</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Ideal Temp + 3</t>
   </si>
   <si>
-    <t>Timer @ 10</t>
-  </si>
-  <si>
     <t>Air Conditioner</t>
   </si>
   <si>
@@ -79,6 +76,12 @@
   </si>
   <si>
     <t>Heater Idle</t>
+  </si>
+  <si>
+    <t>Ideal Temperature</t>
+  </si>
+  <si>
+    <t>TimerAt10</t>
   </si>
 </sst>
 </file>
@@ -432,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7800F54-54B0-41A8-A4CF-1920881424F2}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,10 +455,10 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -475,10 +478,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -492,16 +495,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -515,16 +518,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -544,10 +547,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -564,16 +567,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -582,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -593,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -616,118 +619,118 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -738,10 +741,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -767,10 +770,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>

--- a/GP3 Diagrams/StateTransitionTable.xlsx
+++ b/GP3 Diagrams/StateTransitionTable.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\OneDrive\Desktop\Eclipse Workspace\Git\ICS_372-Group_Project\GP3 Diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnp82\Documents\GitHub\ICS_372-Group_Project\GP3 Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F580F09-689C-4587-A947-865EAEC6C219}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1859CBBD-2E4B-4D15-830F-2778A8B09E1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="17280" windowHeight="6852" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Transition table" sheetId="1" r:id="rId1"/>
+    <sheet name="GUI" sheetId="3" r:id="rId2"/>
+    <sheet name="Device State and Context" sheetId="2" r:id="rId3"/>
+    <sheet name="Device Event" sheetId="4" r:id="rId4"/>
+    <sheet name="Clock" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
   <si>
     <t>Fan</t>
   </si>
@@ -82,6 +86,204 @@
   </si>
   <si>
     <t>TimerAt10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeviceState </t>
+  </si>
+  <si>
+    <t>Device Context</t>
+  </si>
+  <si>
+    <t>AllOffState</t>
+  </si>
+  <si>
+    <t>ACState</t>
+  </si>
+  <si>
+    <t>ACIdleState</t>
+  </si>
+  <si>
+    <t>HeaterState</t>
+  </si>
+  <si>
+    <t>HeaterIdleState</t>
+  </si>
+  <si>
+    <t>FanState</t>
+  </si>
+  <si>
+    <t>FanIdleState</t>
+  </si>
+  <si>
+    <t>enter(): void</t>
+  </si>
+  <si>
+    <t>leave(): void</t>
+  </si>
+  <si>
+    <t>fanRequested():void</t>
+  </si>
+  <si>
+    <t>heaterRequested():void</t>
+  </si>
+  <si>
+    <t>acRequested():void</t>
+  </si>
+  <si>
+    <t>allOffRequested():void</t>
+  </si>
+  <si>
+    <t>idealTemp():void</t>
+  </si>
+  <si>
+    <t>idealACTemp():void</t>
+  </si>
+  <si>
+    <t>idealHeaterTemp():void</t>
+  </si>
+  <si>
+    <t>clockedTicked():void</t>
+  </si>
+  <si>
+    <t>timerAt10():void</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notifiable </t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>GUIDisplay</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>extends Application</t>
+  </si>
+  <si>
+    <t>timeList:int</t>
+  </si>
+  <si>
+    <t>client:Notifiable</t>
+  </si>
+  <si>
+    <t>Timer(client:Notifable, timeValue:int</t>
+  </si>
+  <si>
+    <t>addTimeValue(value:int):void</t>
+  </si>
+  <si>
+    <t>stop(): void</t>
+  </si>
+  <si>
+    <t>timerTicked(timeLeft:int): void</t>
+  </si>
+  <si>
+    <t>timerRanOut(): int</t>
+  </si>
+  <si>
+    <t>currentState: DeviceState</t>
+  </si>
+  <si>
+    <t>display: DeviceDisplay</t>
+  </si>
+  <si>
+    <t>setDisplay(display:DeviceDisplay): void</t>
+  </si>
+  <si>
+    <t>changeState(state:DeviceState): void</t>
+  </si>
+  <si>
+    <t>showACOn():void</t>
+  </si>
+  <si>
+    <t>showHeaterOn():void</t>
+  </si>
+  <si>
+    <t>showFanOn():void</t>
+  </si>
+  <si>
+    <t>showNoDeviceOn(): void</t>
+  </si>
+  <si>
+    <t>showCurrentTemp():void</t>
+  </si>
+  <si>
+    <t>showDesiredTemp():void</t>
+  </si>
+  <si>
+    <t>showOutsideTemp():void</t>
+  </si>
+  <si>
+    <t>GUIButton</t>
+  </si>
+  <si>
+    <t>ACButton</t>
+  </si>
+  <si>
+    <t>HeaterButton</t>
+  </si>
+  <si>
+    <t>FanButton</t>
+  </si>
+  <si>
+    <t>SetCurrentTempButton</t>
+  </si>
+  <si>
+    <t>SetOutsideTempButton</t>
+  </si>
+  <si>
+    <t>SetDesiredTempButton</t>
+  </si>
+  <si>
+    <t>NoDeviceButton</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>DeviceEvent</t>
+  </si>
+  <si>
+    <t>AllOffEvent</t>
+  </si>
+  <si>
+    <t>ACEvent</t>
+  </si>
+  <si>
+    <t>HeaterEvent</t>
+  </si>
+  <si>
+    <t>FanEvent</t>
+  </si>
+  <si>
+    <t>IdealTempEvent</t>
+  </si>
+  <si>
+    <t>heaterTempEvent</t>
+  </si>
+  <si>
+    <t>ACTempEvent</t>
+  </si>
+  <si>
+    <t>timerAt10Event</t>
+  </si>
+  <si>
+    <t>timerTickedEvent</t>
+  </si>
+  <si>
+    <t>TimerTicked</t>
   </si>
 </sst>
 </file>
@@ -105,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,12 +315,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,24 +675,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7800F54-54B0-41A8-A4CF-1920881424F2}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.6796875" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1"/>
+    <col min="8" max="8" width="15.31640625" customWidth="1"/>
+    <col min="9" max="9" width="18.76953125" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -470,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -493,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -516,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -539,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -562,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -587,8 +830,11 @@
       <c r="I8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -617,7 +863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -646,7 +892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -675,7 +921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -704,7 +950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -733,7 +979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -762,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -795,4 +1041,355 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556BD512-C464-430E-9233-F796FE0A299E}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="18.953125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.40625" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" customWidth="1"/>
+    <col min="10" max="10" width="22.04296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E64721-680A-4B4E-B9FE-7CB909BA0EA8}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.58984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="16.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D909839-65F9-4D67-A145-D7D15C161096}">
+  <dimension ref="A2:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.2265625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6796875" customWidth="1"/>
+    <col min="7" max="7" width="17.76953125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="16.58984375" customWidth="1"/>
+    <col min="10" max="10" width="19.31640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC2CBE9-D610-4D58-8973-C120431294BF}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="29.76953125" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GP3 Diagrams/StateTransitionTable.xlsx
+++ b/GP3 Diagrams/StateTransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnp82\Documents\GitHub\ICS_372-Group_Project\GP3 Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1859CBBD-2E4B-4D15-830F-2778A8B09E1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF0D41-2F42-4ADF-8C04-0C253AEEC034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
+    <workbookView minimized="1" xWindow="8400" yWindow="345" windowWidth="10800" windowHeight="7380" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition table" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -352,15 +352,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,19 +693,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7800F54-54B0-41A8-A4CF-1920881424F2}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="9.6796875" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
     <col min="6" max="6" width="17.86328125" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1"/>
-    <col min="8" max="8" width="15.31640625" customWidth="1"/>
-    <col min="9" max="9" width="18.76953125" customWidth="1"/>
+    <col min="7" max="7" width="16.953125" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
     <col min="10" max="10" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -806,236 +822,244 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1275,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D909839-65F9-4D67-A145-D7D15C161096}">
   <dimension ref="A2:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/GP3 Diagrams/StateTransitionTable.xlsx
+++ b/GP3 Diagrams/StateTransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnp82\Documents\GitHub\ICS_372-Group_Project\GP3 Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF0D41-2F42-4ADF-8C04-0C253AEEC034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B911D1F6-9F48-4E15-9AA4-CE648FCB65F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8400" yWindow="345" windowWidth="10800" windowHeight="7380" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition table" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>Fan</t>
   </si>
@@ -43,21 +43,9 @@
     <t xml:space="preserve">Fan </t>
   </si>
   <si>
-    <t>All off</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
-    <t>Clock Ticked</t>
-  </si>
-  <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>Ideal Temp</t>
-  </si>
-  <si>
     <t>All Off</t>
   </si>
   <si>
@@ -70,24 +58,12 @@
     <t>Ideal Temp + 3</t>
   </si>
   <si>
-    <t>Air Conditioner</t>
-  </si>
-  <si>
-    <t>Air Conditioner Idle</t>
-  </si>
-  <si>
     <t>Heater</t>
   </si>
   <si>
     <t>Heater Idle</t>
   </si>
   <si>
-    <t>Ideal Temperature</t>
-  </si>
-  <si>
-    <t>TimerAt10</t>
-  </si>
-  <si>
     <t xml:space="preserve">DeviceState </t>
   </si>
   <si>
@@ -283,7 +259,28 @@
     <t>timerTickedEvent</t>
   </si>
   <si>
-    <t>TimerTicked</t>
+    <t>Press All Off</t>
+  </si>
+  <si>
+    <t>Press Heater</t>
+  </si>
+  <si>
+    <t>Press Fan</t>
+  </si>
+  <si>
+    <t>TimerTicked10Min</t>
+  </si>
+  <si>
+    <t>BlowAir10 Min</t>
+  </si>
+  <si>
+    <t>AC Idle</t>
+  </si>
+  <si>
+    <t>Press AC</t>
+  </si>
+  <si>
+    <t>IdealTemp</t>
   </si>
 </sst>
 </file>
@@ -371,12 +368,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,375 +694,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7800F54-54B0-41A8-A4CF-1920881424F2}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A3:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="9.6796875" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" customWidth="1"/>
-    <col min="7" max="7" width="16.953125" customWidth="1"/>
+    <col min="1" max="1" width="11.40625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="13.86328125" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.1328125" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B1" t="s">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1072,7 +978,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1090,42 +996,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1044,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1149,144 +1055,144 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="16.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1317,34 +1223,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1368,49 +1274,49 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/GP3 Diagrams/StateTransitionTable.xlsx
+++ b/GP3 Diagrams/StateTransitionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnp82\Documents\GitHub\ICS_372-Group_Project\GP3 Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B911D1F6-9F48-4E15-9AA4-CE648FCB65F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C19895-CB9B-4374-97D1-1226A34EBD5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>Fan</t>
   </si>
@@ -281,6 +281,24 @@
   </si>
   <si>
     <t>IdealTemp</t>
+  </si>
+  <si>
+    <t>CurrentTempChange</t>
+  </si>
+  <si>
+    <t>OutsideTempChange</t>
+  </si>
+  <si>
+    <t>DesireTempChange</t>
+  </si>
+  <si>
+    <t>not Singleton</t>
+  </si>
+  <si>
+    <t>not singleton</t>
+  </si>
+  <si>
+    <t>SetTemp</t>
   </si>
 </sst>
 </file>
@@ -368,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -380,6 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7800F54-54B0-41A8-A4CF-1920881424F2}">
-  <dimension ref="A3:J10"/>
+  <dimension ref="A2:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -711,9 +730,23 @@
     <col min="8" max="8" width="13.86328125" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+    <col min="12" max="12" width="9.36328125" customWidth="1"/>
+    <col min="13" max="13" width="9.953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>74</v>
@@ -742,8 +775,17 @@
       <c r="J3" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="K3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -774,8 +816,17 @@
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -806,8 +857,17 @@
       <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -838,8 +898,17 @@
       <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="K6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -870,8 +939,17 @@
       <c r="J7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="K7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -902,8 +980,17 @@
       <c r="J8" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="K8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -934,8 +1021,17 @@
       <c r="J9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="K9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -965,6 +1061,56 @@
       </c>
       <c r="J10" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/GP3 Diagrams/StateTransitionTable.xlsx
+++ b/GP3 Diagrams/StateTransitionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnp82\Documents\GitHub\ICS_372-Group_Project\GP3 Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C19895-CB9B-4374-97D1-1226A34EBD5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253890FA-7701-41C7-BFB9-18023D648495}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{894B0C3F-CD1C-40C3-97F8-F29793698F5D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>Fan</t>
   </si>
@@ -283,22 +283,16 @@
     <t>IdealTemp</t>
   </si>
   <si>
-    <t>CurrentTempChange</t>
-  </si>
-  <si>
-    <t>OutsideTempChange</t>
-  </si>
-  <si>
-    <t>DesireTempChange</t>
-  </si>
-  <si>
-    <t>not Singleton</t>
-  </si>
-  <si>
-    <t>not singleton</t>
-  </si>
-  <si>
     <t>SetTemp</t>
+  </si>
+  <si>
+    <t>SetCurrentTemp</t>
+  </si>
+  <si>
+    <t>SetDesireTemp</t>
+  </si>
+  <si>
+    <t>SetOutsideTemp</t>
   </si>
 </sst>
 </file>
@@ -322,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -382,11 +376,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -399,6 +404,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,39 +721,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7800F54-54B0-41A8-A4CF-1920881424F2}">
-  <dimension ref="A2:M11"/>
+  <dimension ref="A3:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="11.40625" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.2265625" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.40625" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" customWidth="1"/>
     <col min="11" max="11" width="11.36328125" customWidth="1"/>
     <col min="12" max="12" width="9.36328125" customWidth="1"/>
     <col min="13" max="13" width="9.953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
@@ -776,10 +774,10 @@
         <v>77</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>84</v>
@@ -1074,9 +1072,9 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1089,29 +1087,38 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
